--- a/insertion-bubble-shaker.xlsx
+++ b/insertion-bubble-shaker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice DSA\Lab 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3288E2EE-9602-41C0-9C56-281A33771A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A946739-2FB9-4E82-B1B7-664A7E7521EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{3A028D01-64D3-4F27-9DC5-526B12EEF6A6}"/>
+    <workbookView xWindow="-4080" yWindow="444" windowWidth="16584" windowHeight="9420" xr2:uid="{3A028D01-64D3-4F27-9DC5-526B12EEF6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
   <si>
     <t>Insertion Sort</t>
   </si>
@@ -56,6 +56,18 @@
   <si>
     <t>Running time: millisecond</t>
   </si>
+  <si>
+    <t>NearlySorted</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Reversed</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,7 +91,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,43 +233,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C7123-53A1-4702-A9CE-299213DD86BA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,216 +628,830 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D1" s="3"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="15">
         <v>10000</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1">
+      <c r="D4" s="16"/>
+      <c r="E4" s="15">
         <v>30000</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1">
+      <c r="F4" s="16"/>
+      <c r="G4" s="15">
         <v>50000</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1">
+      <c r="H4" s="16"/>
+      <c r="I4" s="15">
         <v>100000</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1">
+      <c r="J4" s="16"/>
+      <c r="K4" s="15">
         <v>300000</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1">
+      <c r="L4" s="16"/>
+      <c r="M4" s="15">
         <v>500000</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
-        <v>122.027</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50010814</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1110.1600000000001</v>
-      </c>
-      <c r="F6" s="6">
-        <v>451347313</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3101.87</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1252030661</v>
-      </c>
-      <c r="I6" s="6">
-        <v>12535.7</v>
-      </c>
-      <c r="J6" s="6">
-        <v>4996453191</v>
-      </c>
-      <c r="K6" s="6">
-        <v>114679</v>
-      </c>
-      <c r="L6" s="6">
-        <v>44961955373</v>
-      </c>
-      <c r="M6" s="6">
-        <v>317739</v>
-      </c>
-      <c r="N6" s="11">
-        <v>125130680193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>143858</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="F6" s="9">
+        <v>380102</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>662794</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.992</v>
+      </c>
+      <c r="J6" s="9">
+        <v>812794</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.988</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1412794</v>
+      </c>
+      <c r="M6" s="9">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="N6" s="10">
+        <v>1881998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>370.08300000000003</v>
+        <v>239.625</v>
       </c>
       <c r="D7" s="7">
         <v>100009999</v>
       </c>
       <c r="E7" s="7">
-        <v>3705.89</v>
+        <v>2181.75</v>
       </c>
       <c r="F7" s="7">
         <v>900029999</v>
       </c>
       <c r="G7" s="7">
-        <v>10461.200000000001</v>
+        <v>5971.34</v>
       </c>
       <c r="H7" s="7">
         <v>2500049999</v>
       </c>
       <c r="I7" s="7">
-        <v>42407.1</v>
+        <v>23948</v>
       </c>
       <c r="J7" s="7">
         <v>10000099999</v>
       </c>
       <c r="K7" s="7">
-        <v>378032</v>
+        <v>217742</v>
       </c>
       <c r="L7" s="7">
         <v>90000299999</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
+        <v>618530</v>
+      </c>
+      <c r="N7" s="12">
+        <v>250000499999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>143241</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>374142</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>643748</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.996</v>
+      </c>
+      <c r="J8" s="8">
+        <v>743748</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1143748</v>
+      </c>
+      <c r="M8" s="8">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1493991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15">
+        <v>100000</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15">
+        <v>300000</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15">
+        <v>500000</v>
+      </c>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>122.027</v>
+      </c>
+      <c r="D12" s="9">
+        <v>50010814</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1110.1600000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>451347313</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3101.87</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1252030661</v>
+      </c>
+      <c r="I12" s="9">
+        <v>12535.7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>4996453191</v>
+      </c>
+      <c r="K12" s="9">
+        <v>114679</v>
+      </c>
+      <c r="L12" s="9">
+        <v>44961955373</v>
+      </c>
+      <c r="M12" s="9">
+        <v>317739</v>
+      </c>
+      <c r="N12" s="10">
+        <v>125130680193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>370.08300000000003</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100009999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3705.89</v>
+      </c>
+      <c r="F13" s="7">
+        <v>900029999</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10461.200000000001</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2500049999</v>
+      </c>
+      <c r="I13" s="7">
+        <v>42407.1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10000099999</v>
+      </c>
+      <c r="K13" s="7">
+        <v>378032</v>
+      </c>
+      <c r="L13" s="7">
+        <v>90000299999</v>
+      </c>
+      <c r="M13" s="11">
         <v>1068370</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N13" s="12">
         <v>250000499999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="14" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C14" s="8">
         <v>279.07100000000003</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D14" s="8">
         <v>66681501</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E14" s="8">
         <v>2674.18</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F14" s="8">
         <v>602102447</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G14" s="8">
         <v>7611.3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H14" s="8">
         <v>1670702092</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I14" s="8">
         <v>30828.1</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J14" s="8">
         <v>6668204177</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K14" s="8">
         <v>270412</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L14" s="8">
         <v>59971423393</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M14" s="8">
         <v>748855</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N14" s="13">
         <v>166804982936</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15">
+        <v>30000</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15">
+        <v>300000</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="15">
+        <v>500000</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>292.23599999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>100009999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2620.9899999999998</v>
+      </c>
+      <c r="F18" s="9">
+        <v>900029999</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7269.59</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2500049999</v>
+      </c>
+      <c r="I18" s="9">
+        <v>31220.9</v>
+      </c>
+      <c r="J18" s="9">
+        <v>10000099999</v>
+      </c>
+      <c r="K18" s="9">
+        <v>274186</v>
+      </c>
+      <c r="L18" s="9">
+        <v>90000299999</v>
+      </c>
+      <c r="M18" s="9">
+        <v>765409</v>
+      </c>
+      <c r="N18" s="10">
+        <v>250000499999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>401.11399999999998</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100009999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3585.91</v>
+      </c>
+      <c r="F19" s="7">
+        <v>900029999</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10209</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2500049999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>39830.5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10000099999</v>
+      </c>
+      <c r="K19" s="7">
+        <v>360297</v>
+      </c>
+      <c r="L19" s="7">
+        <v>90000299999</v>
+      </c>
+      <c r="M19" s="11">
+        <v>995206</v>
+      </c>
+      <c r="N19" s="12">
+        <v>250000499999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>402.10300000000001</v>
+      </c>
+      <c r="D20" s="8">
+        <v>100005001</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3627.31</v>
+      </c>
+      <c r="F20" s="8">
+        <v>900015001</v>
+      </c>
+      <c r="G20" s="8">
+        <v>10096.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2500025001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>40713.199999999997</v>
+      </c>
+      <c r="J20" s="8">
+        <v>10000050001</v>
+      </c>
+      <c r="K20" s="8">
+        <v>372218</v>
+      </c>
+      <c r="L20" s="8">
+        <v>90000150001</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1016610</v>
+      </c>
+      <c r="N20" s="13">
+        <v>250000250001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15">
+        <v>30000</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15">
+        <v>300000</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15">
+        <v>500000</v>
+      </c>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>29998</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>89998</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="H24" s="9">
+        <v>149998</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="J24" s="9">
+        <v>299998</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.992</v>
+      </c>
+      <c r="L24" s="9">
+        <v>899998</v>
+      </c>
+      <c r="M24" s="9">
+        <v>3.99</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1499998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>282.27499999999998</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100009999</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2539.19</v>
+      </c>
+      <c r="F25" s="7">
+        <v>900029999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>7234.47</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2500049999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>28711</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10000099999</v>
+      </c>
+      <c r="K25" s="7">
+        <v>263563</v>
+      </c>
+      <c r="L25" s="7">
+        <v>90000299999</v>
+      </c>
+      <c r="M25" s="11">
+        <v>732217</v>
+      </c>
+      <c r="N25" s="12">
+        <v>250000499999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>20002</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>60002</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>100002</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <v>200002</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1.994</v>
+      </c>
+      <c r="L26" s="8">
+        <v>600002</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.994</v>
+      </c>
+      <c r="N26" s="13">
+        <v>1000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="28">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
